--- a/xlsx/奥利弗·威廉姆森_intext.xlsx
+++ b/xlsx/奥利弗·威廉姆森_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%8E%89%E8%AF%BA%C2%B7%E5%A5%A5%E6%96%AF%E7%89%B9%E7%BD%97%E5%A7%86</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%88%B6%E5%BA%A6%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新制度經濟學</t>
+    <t>新制度经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E7%A7%91%E6%96%AF</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF%C2%B7%E5%BA%93%E5%85%B9%E6%B6%85%E8%8C%A8</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E8%92%82%E5%B0%94%C2%B7%E5%A5%A5%E6%9E%97</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E8%88%92%E7%88%BE%E8%8C%A8</t>
   </si>
   <si>
-    <t>西奧多·威廉·舒爾茨</t>
+    <t>西奥多·威廉·舒尔茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%98%BF%E7%91%9F%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
@@ -185,37 +185,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E8%B3%93</t>
   </si>
   <si>
-    <t>詹姆士·托賓</t>
+    <t>詹姆士·托宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>喬治·斯蒂格勒</t>
+    <t>乔治·斯蒂格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%BE%B7%E5%B8%83%E9%AD%AF</t>
   </si>
   <si>
-    <t>傑拉德·德布魯</t>
+    <t>杰拉德·德布鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%8F%B2%E6%9D%B1</t>
   </si>
   <si>
-    <t>理查德·史東</t>
+    <t>理查德·史东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7M%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%A4%AB%C2%B7%E5%93%88%E7%B6%AD%E9%BB%98</t>
   </si>
   <si>
-    <t>特里夫·哈維默</t>
+    <t>特里夫·哈维默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E9%A6%AC%E5%8F%AF%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>哈利·馬可維茲</t>
+    <t>哈利·马可维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E9%A1%BF%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋瑞·貝克</t>
+    <t>盖瑞·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%A6%8F%E6%A0%BC%E5%B0%94</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·蒙代爾</t>
+    <t>罗伯特·蒙代尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B5%AB%E5%85%8B%E6%9B%BC</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%A0%BC%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯格曼</t>
+    <t>保罗·克鲁格曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E6%88%B4%E8%92%99%E5%BE%B7</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%91%AA%E6%96%AF%C2%B7%E8%96%A9%E9%87%91%E7%89%B9</t>
   </si>
   <si>
-    <t>托瑪斯·薩金特</t>
+    <t>托玛斯·萨金特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E8%A5%BF%E5%A7%86%E6%96%AF</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%83%C2%B7%E5%B8%AD%E5%8B%92</t>
   </si>
   <si>
-    <t>羅勃·席勒</t>
+    <t>罗勃·席勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E6%A2%AF%E8%8B%A5%E5%B0%94</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%8C%95</t>
   </si>
   <si>
-    <t>高錕</t>
+    <t>高锟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%8C%96%E5%AD%A6%E5%A5%96</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -899,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -1031,25 +1031,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -1079,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -1121,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -1187,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -1265,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1283,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1301,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1313,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
